--- a/trunk/lotteria/문서/롯데 인터넷 API 설명서(XML).xlsx
+++ b/trunk/lotteria/문서/롯데 인터넷 API 설명서(XML).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="784">
   <si>
     <t>FUNCTION</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4216,6 +4216,9 @@
 세트(S10 ) &amp;&amp; 버거( D10) = 12개  
 나머지는 제한없음</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULT_CODE == L   로그인 실패 (timeout ) </t>
   </si>
 </sst>
 </file>
@@ -4899,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4958,6 +4961,9 @@
       </c>
       <c r="C7" s="5" t="s">
         <v>753</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20">

--- a/trunk/lotteria/문서/롯데 인터넷 API 설명서(XML).xlsx
+++ b/trunk/lotteria/문서/롯데 인터넷 API 설명서(XML).xlsx
@@ -4218,7 +4218,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">RESULT_CODE == L   로그인 실패 (timeout ) </t>
+    <t xml:space="preserve">RESULT_CODE == L   로그인 실패 (timeout ) / 공지이미지는 바뀔수있음 - </t>
   </si>
 </sst>
 </file>
@@ -4902,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/trunk/lotteria/문서/롯데 인터넷 API 설명서(XML).xlsx
+++ b/trunk/lotteria/문서/롯데 인터넷 API 설명서(XML).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="790">
   <si>
     <t>FUNCTION</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2103,10 +2103,6 @@
       </rPr>
       <t>조회</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MbMenu.asmx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2749,11 +2745,6 @@
   </si>
   <si>
     <t>ws_getBranchMenuXml</t>
-  </si>
-  <si>
-    <t>배송지 를 다시 찾아온다.
-SHORT_FLAG :  결품여부  결품 : " Y"   정상 "N"
-&lt;RESULT_CODE&gt;N&lt;/RUELST_CODE&gt; 검색된 배달된매장이 존재 하지 않습니다. (통일)</t>
   </si>
   <si>
     <r>
@@ -2977,6 +2968,1037 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>personal_mobile</t>
+  </si>
+  <si>
+    <t>현금영수증 전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;NewDataSet&gt;
+  &lt;ITEM&gt;
+  &lt;MENU_ID&gt;LB0016&lt;/MENU_ID&gt; 
+  &lt;MENU_DIS&gt;00&lt;/MENU_DIS&gt; 
+  &lt;MENU_NM&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데리버거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/MENU_NM&gt; 
+  &lt;PRICE&gt;2000.0000&lt;/PRICE&gt; 
+  &lt;WEIGHT&gt;132&lt;/WEIGHT&gt; 
+  &lt;KCAL&gt;343&lt;/KCAL&gt; 
+  &lt;DAN&gt;13&lt;/DAN&gt; 
+  &lt;NA&gt;612&lt;/NA&gt; 
+  &lt;DANG&gt;5&lt;/DANG&gt; 
+  &lt;POHWA&gt;5.7&lt;/POHWA&gt; 
+  &lt;SET_FLAG&gt;1&lt;/SET_FLAG&gt; 
+  &lt;ORI_MENU_ID&gt;LB0016&lt;/ORI_MENU_ID&gt; 
+  &lt;ORI_MENU_DIS&gt;00&lt;/ORI_MENU_DIS&gt; 
+  &lt;MENU_EXPLAIN&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풍성한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레터스에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마요네즈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>독특한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데리소스가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포인트인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>햄버거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/MENU_EXPLAIN&gt; 
+  &lt;MENU_IMG_FILE&gt;bg_tb&lt;/MENU_IMG_FILE&gt; 
+  &lt;NEW_FLAG&gt;N&lt;/NEW_FLAG&gt; 
+  &lt;CATE_ID&gt;D10&lt;/CATE_ID&gt; 
+  &lt;/ITEM&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/NewDataSet&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>공지사항 이미지 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 삭제</t>
+    </r>
+  </si>
+  <si>
+    <t>MbCust.asmx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 조회 seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;RESULT_CODE&gt;Y&lt;/RESULT_CODE&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y : 성공, N : 실패, C : 시스템오류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MbMenu.asmx</t>
+  </si>
+  <si>
+    <t>ws_getMenuXml</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MenuID : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>메뉴아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Menu_DIS : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .. -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>주문시점에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .. 
+Menu_NM : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>메뉴명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Menu_S_DATE ;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>판매시작일자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">..
+Menu_E_DATE : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>판매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>종료일자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ..
+PRICE : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+WEIGHT : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>메뉴에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>중량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+KCAL : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>칼로리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+DAN :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>단백질</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+NA :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>나트륨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DANG : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>당류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PHOWA : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>포화지방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CATE_ID :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>메뉴코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+MENU_EXPLAIN  :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+MENU_IMG_FILE  : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>이미지명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>소문자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) XX_XX_I.png  
+SAUCE_MAX_NUM : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>소스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>갯수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>모바일에서는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MDArt"/>
+        <family val="2"/>
+      </rPr>
+      <t>사용안함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ORI_MENU_DIS :   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세트의 메뉴에서 오리지널 메뉴할인ID
+ORI_MENU_ID : 오리지널 메뉴의 ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SET_FLAG  ; 3  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단품 없애기 ) 장난감 세트 추가 됨  
+NEW_FLAG : enw  이미지 붙이는지 여부 
+주문전송 : item_free_flag :  장남감 : Y 
+             할인 가격 : 1500   
+             item_dis_cd  : 0004
+             item_disc_money : 1500
+세트(S10 ) &amp;&amp; 버거( D10) = 12개  
+나머지는 제한없음</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULT_CODE == L   로그인 실패 (timeout ) / 공지이미지는 바뀔수있음 - </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이폰</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> http://homeservice.lotteria.co.kr/mobile/iphone/notice/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안드로이드</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> http://homeservice.lotteria.co.kr/mobile/android/notice/</t>
+    </r>
+  </si>
+  <si>
+    <t>콜센터 전화번호</t>
+  </si>
+  <si>
+    <t>1600-9999</t>
+  </si>
+  <si>
+    <t>http://homeservice.lotteria.co.kr/ws/mobile/</t>
+  </si>
+  <si>
+    <t>MbBranch.asmx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그아웃</t>
+    </r>
+  </si>
+  <si>
+    <t>MbCust.asmx</t>
+  </si>
+  <si>
+    <t>ws_isLogout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;RESULT&gt;1.0&lt;/RESULT&gt; 
+</t>
+  </si>
+  <si>
     <r>
       <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
 &lt;NewDataSet&gt;
@@ -3203,7 +4225,7 @@
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/BRANCH_STATE_NM&gt; 
-  &lt;BRANCH_PAY_FLAG xml:space="preserve"&gt;&lt;/BRANCH_PAY_FLAG&gt; 
+  &lt;BRANCH_PAY_FLAG &gt;&lt;/BRANCH_PAY_FLAG&gt; 
   &lt;DELIVERY_TIME&gt;30&lt;/DELIVERY_TIME&gt; 
   &lt;BRANCH_MEMO&gt;</t>
     </r>
@@ -3251,6 +4273,9 @@
   &lt;TERMINAL_ID&gt;20000001&lt;/TERMINAL_ID&gt; 
   &lt;BUSINESS_DATE&gt;20110314&lt;/BUSINESS_DATE&gt; 
   &lt;DISTANCE&gt;1844.6035923793418&lt;/DISTANCE&gt; 
+ &lt;DELI_OPEN_TIME&gt;HHMISS&lt;/DELI_OPEN_TIME&gt;
+&lt;DELI_CLOSE_TIME&gt;HHMISS&lt;/DELI_CLOSE_TIME&gt;
+&lt;DELIVERY_TIME&gt;90&lt;/DELIVERY_TIME&gt;
   &lt;/BRANCH&gt;
 - &lt;ITEM&gt;
   &lt;MENU_ID&gt;200158&lt;/MENU_ID&gt; 
@@ -3266,959 +4291,12 @@
     </r>
   </si>
   <si>
-    <t>personal_mobile</t>
-  </si>
-  <si>
-    <t>현금영수증 전화번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
-&lt;NewDataSet&gt;
-  &lt;ITEM&gt;
-  &lt;MENU_ID&gt;LB0016&lt;/MENU_ID&gt; 
-  &lt;MENU_DIS&gt;00&lt;/MENU_DIS&gt; 
-  &lt;MENU_NM&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데리버거</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/MENU_NM&gt; 
-  &lt;PRICE&gt;2000.0000&lt;/PRICE&gt; 
-  &lt;WEIGHT&gt;132&lt;/WEIGHT&gt; 
-  &lt;KCAL&gt;343&lt;/KCAL&gt; 
-  &lt;DAN&gt;13&lt;/DAN&gt; 
-  &lt;NA&gt;612&lt;/NA&gt; 
-  &lt;DANG&gt;5&lt;/DANG&gt; 
-  &lt;POHWA&gt;5.7&lt;/POHWA&gt; 
-  &lt;SET_FLAG&gt;1&lt;/SET_FLAG&gt; 
-  &lt;ORI_MENU_ID&gt;LB0016&lt;/ORI_MENU_ID&gt; 
-  &lt;ORI_MENU_DIS&gt;00&lt;/ORI_MENU_DIS&gt; 
-  &lt;MENU_EXPLAIN&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>풍성한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>레터스에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마요네즈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>독특한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데리소스가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포인트인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>햄버거</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/MENU_EXPLAIN&gt; 
-  &lt;MENU_IMG_FILE&gt;bg_tb&lt;/MENU_IMG_FILE&gt; 
-  &lt;NEW_FLAG&gt;N&lt;/NEW_FLAG&gt; 
-  &lt;CATE_ID&gt;D10&lt;/CATE_ID&gt; 
-  &lt;/ITEM&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/NewDataSet&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>http://homeservice.lotteria.co.kr/ws/mobile/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 이미지 경로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이폰 http://homeservice.lotteria.co.kr/mobile/iphone/notice/
-안드로이드 http://homeservice.lotteria.co.kr/mobile/android/notice/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배송지</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 삭제</t>
-    </r>
-  </si>
-  <si>
-    <t>MbCust.asmx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 조회 seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
-&lt;RESULT_CODE&gt;Y&lt;/RESULT_CODE&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y : 성공, N : 실패, C : 시스템오류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MbMenu.asmx</t>
-  </si>
-  <si>
-    <t>ws_getMenuXml</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MenuID : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>메뉴아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Menu_DIS : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>메뉴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>할인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>코드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .. -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>주문시점에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>필요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .. 
-Menu_NM : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>메뉴명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Menu_S_DATE ;  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>판매시작일자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">..
-Menu_E_DATE : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>판매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>종료일자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ..
-PRICE : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>가격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-WEIGHT : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>메뉴에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>중량</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-KCAL : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>칼로리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-DAN :  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>단백질</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-NA :  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>나트륨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DANG : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>당류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PHOWA : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>포화지방</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-CATE_ID :  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>메뉴코드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-MENU_EXPLAIN  :  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>메뉴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>설명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-MENU_IMG_FILE  : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>이미지명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>소문자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) XX_XX_I.png  
-SAUCE_MAX_NUM : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>소스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>최대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>갯수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>모바일에서는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MDArt"/>
-        <family val="2"/>
-      </rPr>
-      <t>사용안함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ORI_MENU_DIS :   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세트의 메뉴에서 오리지널 메뉴할인ID
-ORI_MENU_ID : 오리지널 메뉴의 ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-SET_FLAG  ; 3  ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단품 없애기 ) 장난감 세트 추가 됨  
-NEW_FLAG : enw  이미지 붙이는지 여부 
-주문전송 : item_free_flag :  장남감 : Y 
-             할인 가격 : 1500   
-             item_dis_cd  : 0004
-             item_disc_money : 1500
-세트(S10 ) &amp;&amp; 버거( D10) = 12개  
-나머지는 제한없음</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RESULT_CODE == L   로그인 실패 (timeout ) / 공지이미지는 바뀔수있음 - </t>
+    <t>24시 배달매장 : 00000 - 240000 || 000000 - 0000000
+일반배달 매장 : 09000 - 220000 
+배송지 를 다시 찾아온다.
+SHORT_FLAG :  결품여부  결품 : " Y"   정상 "N"
+BRANCH_PAY_FLAG :  주문시 신용결제 안되는 매장 
+&lt;RESULT_CODE&gt;N&lt;/RUELST_CODE&gt; 검색된 배달된매장이 존재 하지 않습니다. (통일)</t>
   </si>
 </sst>
 </file>
@@ -4228,7 +4306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₩&quot;#,##0.00;\-&quot;₩&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4380,6 +4458,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4516,7 +4602,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4559,8 +4645,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="14" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="14" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4569,6 +4658,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4586,11 +4678,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="14" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="14" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -4900,10 +4989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E120"/>
+  <dimension ref="A2:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4915,12 +5004,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="19" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5"/>
@@ -4940,46 +5029,54 @@
       <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>771</v>
+      <c r="C5" s="16" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="B6" t="s">
-        <v>772</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>773</v>
+        <v>768</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>779</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>783</v>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="C8" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4987,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5002,7 +5099,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="409" customHeight="1">
@@ -5010,26 +5107,26 @@
         <v>54</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5037,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5052,16 +5149,16 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="270" customHeight="1">
@@ -5069,31 +5166,31 @@
         <v>55</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20">
-      <c r="A29" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5108,16 +5205,16 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" s="5" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28">
@@ -5125,26 +5222,26 @@
         <v>55</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D36" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19">
-      <c r="A38" s="16" t="s">
-        <v>651</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="A38" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5152,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5163,296 +5260,296 @@
         <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="B46" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D55" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="157" customHeight="1">
       <c r="B66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D79" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -5460,26 +5557,26 @@
         <v>54</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D80" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="19">
-      <c r="A83" s="16" t="s">
-        <v>689</v>
-      </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
+      <c r="A83" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="85" spans="1:5">
       <c r="B85" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>645</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5487,13 +5584,13 @@
         <v>0</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="C87" s="9"/>
       <c r="D87" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5501,36 +5598,36 @@
         <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="B89" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="B90" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="B91" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="409" customHeight="1">
@@ -5538,27 +5635,27 @@
         <v>54</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>747</v>
+        <v>789</v>
       </c>
       <c r="E93" s="5"/>
     </row>
     <row r="95" spans="1:5" ht="19">
-      <c r="A95" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
+      <c r="A95" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
     </row>
     <row r="97" spans="1:4">
       <c r="B97" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5566,16 +5663,16 @@
         <v>0</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="C99" s="9"/>
       <c r="D99" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5583,11 +5680,11 @@
         <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="409">
@@ -5595,26 +5692,26 @@
         <v>54</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="19">
-      <c r="A103" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
+      <c r="A103" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
     </row>
     <row r="105" spans="1:4">
       <c r="B105" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5622,10 +5719,10 @@
         <v>0</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5636,13 +5733,13 @@
         <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C108" s="6"/>
     </row>
     <row r="109" spans="1:4">
       <c r="B109" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C109" s="6"/>
     </row>
@@ -5651,31 +5748,31 @@
         <v>54</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="19">
-      <c r="A114" s="16" t="s">
-        <v>761</v>
-      </c>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
+      <c r="A114" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
     </row>
     <row r="116" spans="1:4">
       <c r="B116" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="B117" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5686,7 +5783,7 @@
         <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C119" s="6"/>
     </row>
@@ -5695,20 +5792,65 @@
         <v>54</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="19">
+      <c r="A122" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="B124" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="B125" t="s">
+        <v>761</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" t="s">
+        <v>643</v>
+      </c>
+      <c r="C127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" ht="28">
+      <c r="B128" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A29:D29"/>
+  <mergeCells count="10">
     <mergeCell ref="A114:D114"/>
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A122:D122"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5716,6 +5858,7 @@
     <hyperlink ref="C6" r:id="rId2" display="http://homeservice.lotteria.co.kr/ws/mobile/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5741,15 +5884,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5"/>
@@ -5865,10 +6008,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -5885,8 +6028,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
@@ -5901,8 +6044,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
@@ -5915,8 +6058,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
@@ -5929,10 +6072,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -5949,8 +6092,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
@@ -5965,8 +6108,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
@@ -6015,16 +6158,16 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="10"/>

--- a/trunk/lotteria/문서/롯데 인터넷 API 설명서(XML).xlsx
+++ b/trunk/lotteria/문서/롯데 인터넷 API 설명서(XML).xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="서버통신 정보" sheetId="1" r:id="rId1"/>
     <sheet name="제품정보" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="813">
   <si>
     <t>FUNCTION</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4297,6 +4298,75 @@
 SHORT_FLAG :  결품여부  결품 : " Y"   정상 "N"
 BRANCH_PAY_FLAG :  주문시 신용결제 안되는 매장 
 &lt;RESULT_CODE&gt;N&lt;/RUELST_CODE&gt; 검색된 배달된매장이 존재 하지 않습니다. (통일)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULT_CODE </t>
+  </si>
+  <si>
+    <t>에러메시지</t>
+  </si>
+  <si>
+    <t>N,C</t>
+  </si>
+  <si>
+    <t>배송지삭제</t>
+  </si>
+  <si>
+    <t>삭제 실패했습니다.</t>
+  </si>
+  <si>
+    <t>배송매장찾기</t>
+  </si>
+  <si>
+    <t>배달가능 매장이없습니다.</t>
+  </si>
+  <si>
+    <t>N,C , array</t>
+  </si>
+  <si>
+    <t>배송시간선택</t>
+  </si>
+  <si>
+    <t>이전시간/매장종료</t>
+  </si>
+  <si>
+    <t>배달 가능한 시간이 아닙니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">결제하기 </t>
+  </si>
+  <si>
+    <t>주문실패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주문에 실패하였습니다. </t>
+  </si>
+  <si>
+    <t>장바구니화면으로 돌아가기..</t>
+  </si>
+  <si>
+    <t>위치정보를 불러오는데 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>맵정보</t>
+  </si>
+  <si>
+    <t>첫화면</t>
+  </si>
+  <si>
+    <t>24시매장이 없습니다.</t>
+  </si>
+  <si>
+    <t>배달매장버튼</t>
+  </si>
+  <si>
+    <t>24시매장버튼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주변(반경 5KM)에 매장이 없습니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">첫조회시 </t>
   </si>
 </sst>
 </file>
@@ -4651,6 +4721,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="14" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4658,9 +4734,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4676,9 +4749,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4991,8 +5061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5004,12 +5074,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="19" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5"/>
@@ -5064,12 +5134,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="20">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="5" t="s">
@@ -5114,12 +5184,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="22" customHeight="1">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="8" t="s">
@@ -5170,12 +5240,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="20">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="19" t="s">
         <v>769</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="8" t="s">
@@ -5229,12 +5299,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="19">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" s="8" t="s">
@@ -5564,12 +5634,12 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="19">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="19" t="s">
         <v>688</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
     </row>
     <row r="85" spans="1:5">
       <c r="B85" s="5" t="s">
@@ -5643,12 +5713,12 @@
       <c r="E93" s="5"/>
     </row>
     <row r="95" spans="1:5" ht="19">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="19" t="s">
         <v>691</v>
       </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
     </row>
     <row r="97" spans="1:4">
       <c r="B97" s="5" t="s">
@@ -5699,12 +5769,12 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="19">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
     </row>
     <row r="105" spans="1:4">
       <c r="B105" s="5" t="s">
@@ -5752,12 +5822,12 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="19">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
     </row>
     <row r="116" spans="1:4">
       <c r="B116" s="5" t="s">
@@ -5796,18 +5866,18 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="19">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="B122" s="21"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
     </row>
     <row r="124" spans="1:4">
       <c r="B124" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="18" t="s">
         <v>785</v>
       </c>
     </row>
@@ -5841,16 +5911,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A114:D114"/>
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5858,7 +5928,6 @@
     <hyperlink ref="C6" r:id="rId2" display="http://homeservice.lotteria.co.kr/ws/mobile/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5884,15 +5953,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5"/>
@@ -6008,10 +6077,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -6028,8 +6097,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
@@ -6044,8 +6113,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
@@ -6058,8 +6127,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
@@ -6072,10 +6141,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -6092,8 +6161,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
@@ -6108,8 +6177,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
@@ -6158,16 +6227,16 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="10"/>
@@ -12989,4 +13058,117 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="D1" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="D11" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="D13" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/trunk/lotteria/문서/롯데 인터넷 API 설명서(XML).xlsx
+++ b/trunk/lotteria/문서/롯데 인터넷 API 설명서(XML).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="서버통신 정보" sheetId="1" r:id="rId1"/>
@@ -5061,7 +5061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E128"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
@@ -13064,8 +13064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
